--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Document\0课程资料\机器学习\Project\CS420-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{065D415F-F6CB-471C-A289-ABACAB5561AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A91344F2-C9EE-45E2-806B-40543B1F8E58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{7765B8B7-2924-4150-B766-B549A656F3C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="2" xr2:uid="{7765B8B7-2924-4150-B766-B549A656F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KNN_PCA" sheetId="2" r:id="rId2"/>
+    <sheet name="score_without" sheetId="4" r:id="rId2"/>
+    <sheet name="score_with" sheetId="5" r:id="rId3"/>
+    <sheet name="KNN_K" sheetId="3" r:id="rId4"/>
+    <sheet name="KNN_PCA" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>PCA ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +41,25 @@
   <si>
     <t>Accuracy without preprocessing</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg / total</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -86,12 +108,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,6 +397,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>PCA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47222890305054288"/>
+              <c:y val="0.84238857248526056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -437,6 +530,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1516131008915713E-2"/>
+              <c:y val="0.30167052466990751"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1103,15 +1260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1196340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1438,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB62D1D4-5F0E-4DA8-9E23-7EF472D88669}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1557,11 +1714,573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD21EC21-63ED-451E-BBEE-79620E3749D9}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E2" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="E7" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E11" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B7863-CACD-436F-9CE4-3A07E11821E4}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E2" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E6" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E7" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E10" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664ABAE9-5524-4B7A-9B62-328936F4EC93}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D5B9DF-0D08-42E9-BCD8-4E7E490069BF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Document\0课程资料\机器学习\Project\CS420-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A91344F2-C9EE-45E2-806B-40543B1F8E58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2945B4D3-E394-4E89-ACAC-F41C72C14230}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="2" xr2:uid="{7765B8B7-2924-4150-B766-B549A656F3C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="3" xr2:uid="{7765B8B7-2924-4150-B766-B549A656F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="score_without" sheetId="4" r:id="rId2"/>
     <sheet name="score_with" sheetId="5" r:id="rId3"/>
-    <sheet name="KNN_K" sheetId="3" r:id="rId4"/>
-    <sheet name="KNN_PCA" sheetId="2" r:id="rId5"/>
+    <sheet name="score_voting" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="KNN_K" sheetId="3" r:id="rId6"/>
+    <sheet name="KNN_PCA" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>PCA ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1942,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B7863-CACD-436F-9CE4-3A07E11821E4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
@@ -2157,6 +2159,242 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6DA39E-48AE-47A3-937F-2EA2AC33849F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E2" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F003AEB5-FBB8-4FDF-A159-BD2E083F9B93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664ABAE9-5524-4B7A-9B62-328936F4EC93}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2275,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D5B9DF-0D08-42E9-BCD8-4E7E490069BF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
